--- a/Masters/Equipment/EquipmentCraftMaster/ClassSchema.xlsx
+++ b/Masters/Equipment/EquipmentCraftMaster/ClassSchema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\project\Aries-Master\Masters\Equipment\EquipmentCraftMaster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B700F6-A8AC-4F7C-B85C-E50FE1EDED56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14617DF-2C2D-458A-B612-40355E377708}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9360" xr2:uid="{D010554B-594E-4258-A22D-8907CA064929}"/>
   </bookViews>
@@ -47,28 +47,30 @@
     <t>成功率</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>CraftId</t>
+  </si>
+  <si>
+    <t>RecipeId</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>SuccessRate</t>
+  </si>
+  <si>
     <t>uint</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>uint</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ushort</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>CraftId</t>
-  </si>
-  <si>
-    <t>RecipeId</t>
-  </si>
-  <si>
-    <t>Cost</t>
-  </si>
-  <si>
-    <t>SuccessRate</t>
-  </si>
-  <si>
-    <t>uint</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -498,7 +500,7 @@
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -578,16 +580,16 @@
     </row>
     <row r="3" spans="1:25" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>7</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -613,16 +615,16 @@
     </row>
     <row r="4" spans="1:25" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="D4" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>11</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
